--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brady\Documents\Homework\Spring 2021\Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51EA05D6-A2B3-4FDF-B3C1-E75FBD8C43EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C835C87-4F60-451B-94B1-DA0383DCA958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{C1C2B639-1081-441B-B9C1-DC098237CD69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1C2B639-1081-441B-B9C1-DC098237CD69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>Test ID#</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Combined Best</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Combined accuracy</t>
   </si>
 </sst>
 </file>
@@ -112,12 +118,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1B17C4-AB9D-48B8-8014-8A9CFC28A02C}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,11 +482,18 @@
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="7" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -482,21 +510,24 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
@@ -534,23 +565,26 @@
       <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="E2">
+        <v>0.2</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>57.8</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>70.790000000000006</v>
       </c>
-      <c r="J2">
-        <f>(H2/100)*(I2/100) * 100</f>
+      <c r="K2">
+        <f>(I2/100)*(J2/100) * 100</f>
         <v>40.916620000000002</v>
       </c>
       <c r="Q2">
@@ -582,21 +616,30 @@
       <c r="C3">
         <v>0.2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="E3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>62.17</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J19" si="0">(H3/100)*(I3/100) * 100</f>
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K17" si="0">(I3/100)*(J3/100) * 100</f>
+        <v>36.058599999999998</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -612,18 +655,27 @@
       <c r="D4">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
+      <c r="E4">
+        <v>0.2</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
+      <c r="I4">
+        <v>57.22</v>
+      </c>
       <c r="J4">
+        <v>63</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.0486</v>
       </c>
       <c r="N4" t="s">
         <v>8</v>
@@ -639,21 +691,30 @@
       <c r="C5">
         <v>0.2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>50</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="J5">
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>58.17</v>
+      </c>
+      <c r="J5" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.475209999999997</v>
       </c>
       <c r="N5" t="s">
         <v>17</v>
@@ -672,18 +733,27 @@
       <c r="D6">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>57.76</v>
       </c>
       <c r="J6">
+        <v>60.53</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34.962128000000007</v>
       </c>
       <c r="P6" t="s">
         <v>13</v>
@@ -720,18 +790,27 @@
       <c r="D7">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
+      <c r="I7">
+        <v>50.51</v>
+      </c>
       <c r="J7">
+        <v>70.19</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35.452968999999996</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -747,18 +826,27 @@
       <c r="D8">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
+      <c r="E8">
+        <v>0.35</v>
       </c>
       <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="G8">
-        <v>2</v>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>57.97</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.34</v>
+      </c>
+      <c r="K8">
+        <f>(I8/100)*(J8/100) * 100</f>
+        <v>32.660297999999997</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -774,18 +862,27 @@
       <c r="D9">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
-        <v>6</v>
+      <c r="E9">
+        <v>0.35</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>2</v>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>52.47</v>
       </c>
       <c r="J9">
+        <v>56.85</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.829194999999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -801,18 +898,27 @@
       <c r="D10">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
+      <c r="E10">
+        <v>0.35</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
+      <c r="I10">
+        <v>53.07</v>
+      </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.5</v>
+      </c>
+      <c r="K10">
+        <f>(I10/100)*(J10/100) * 100</f>
+        <v>29.984549999999992</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -828,18 +934,27 @@
       <c r="D11">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0.35</v>
+      </c>
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="G11">
-        <v>2</v>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>54.44</v>
       </c>
       <c r="J11">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38.162439999999997</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -855,18 +970,27 @@
       <c r="D12">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>0.35</v>
+      </c>
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>49.69</v>
       </c>
       <c r="J12">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.987960000000001</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -882,18 +1006,27 @@
       <c r="D13">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>0.35</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
+      <c r="I13">
+        <v>37.9</v>
+      </c>
       <c r="J13">
+        <v>47.81</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.119990000000001</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -907,20 +1040,53 @@
         <v>0.5</v>
       </c>
       <c r="D14">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
       </c>
       <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="G14">
-        <v>2</v>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>55.59</v>
       </c>
       <c r="J14">
+        <v>54.89</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.513351000000004</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -934,20 +1100,47 @@
         <v>0.5</v>
       </c>
       <c r="D15">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
-      <c r="G15">
-        <v>2</v>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>51.32</v>
       </c>
       <c r="J15">
+        <v>43.28</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.211296000000001</v>
+      </c>
+      <c r="Q15">
+        <v>300</v>
+      </c>
+      <c r="R15">
+        <v>0.2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>67.180000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -961,23 +1154,32 @@
         <v>0.5</v>
       </c>
       <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
       <c r="J16">
+        <v>20.7</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -988,23 +1190,32 @@
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="G17">
-        <v>2</v>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>59.66</v>
       </c>
       <c r="J17">
+        <v>65.959999999999994</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39.351735999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1015,23 +1226,53 @@
         <v>0.5</v>
       </c>
       <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>57.89</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53.19</v>
+      </c>
+      <c r="K18">
+        <f>(I18/100)*(J18/100) * 100</f>
+        <v>30.791690999999993</v>
+      </c>
+      <c r="P18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1042,55 +1283,92 @@
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
         <v>3</v>
       </c>
+      <c r="I19">
+        <v>50.92</v>
+      </c>
       <c r="J19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
+        <v>48.46</v>
+      </c>
+      <c r="K19">
+        <f>(I19/100)*(J19/100) * 100</f>
+        <v>24.675832</v>
+      </c>
+      <c r="Q19">
+        <v>600</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" t="s">
+        <v>11</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>88.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <f>MAX(H2:H19)</f>
-        <v>57.8</v>
-      </c>
+      <c r="W22">
+        <f>(V15/100)*(V19/100)*100</f>
+        <v>59.48789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I23">
         <f>MAX(I2:I19)</f>
-        <v>70.790000000000006</v>
+        <v>62.17</v>
       </c>
       <c r="J23">
-        <f>(H23/100)*(I23/100) * 100</f>
-        <v>40.916620000000002</v>
+        <f>MAX(J2:J19)</f>
+        <v>71.3</v>
+      </c>
+      <c r="K23">
+        <f>(I23/100)*(J23/100) * 100</f>
+        <v>44.327210000000001</v>
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44">
         <f>SUM(D2:D37)</f>
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="G44">
         <f>F44/2/60</f>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
